--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/战中avg表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/战中avg表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Windows\MOBI\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOBI\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>战斗引导-序章第二关</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量介绍</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导偶童</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -748,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G9"/>
+      <selection activeCell="D10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -894,28 +902,30 @@
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
+      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -923,12 +933,40 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>19</v>
       </c>
     </row>
